--- a/resources/test_map.xlsx
+++ b/resources/test_map.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="18860" yWindow="3700" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="test.json" sheetId="1" r:id="rId1"/>
-    <sheet name="test.json#traits" sheetId="2" r:id="rId2"/>
+    <sheet name="test_map.json" sheetId="1" r:id="rId1"/>
+    <sheet name="test_map.json#traits" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -412,7 +412,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
